--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H2">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J2">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N2">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q2">
-        <v>22.54152783571223</v>
+        <v>0.2100289382131111</v>
       </c>
       <c r="R2">
-        <v>22.54152783571223</v>
+        <v>1.890260443918</v>
       </c>
       <c r="S2">
-        <v>0.01329678167119755</v>
+        <v>0.0001132064774007053</v>
       </c>
       <c r="T2">
-        <v>0.01329678167119755</v>
+        <v>0.0001132064774007053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H3">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J3">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N3">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q3">
-        <v>121.301425450528</v>
+        <v>1.109977279855778</v>
       </c>
       <c r="R3">
-        <v>121.301425450528</v>
+        <v>9.989795518702001</v>
       </c>
       <c r="S3">
-        <v>0.07155320537170476</v>
+        <v>0.0005982824029695793</v>
       </c>
       <c r="T3">
-        <v>0.07155320537170476</v>
+        <v>0.0005982824029695796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H4">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J4">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N4">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q4">
-        <v>29.53148293391566</v>
+        <v>0.2865567388871111</v>
       </c>
       <c r="R4">
-        <v>29.53148293391566</v>
+        <v>2.579010649984</v>
       </c>
       <c r="S4">
-        <v>0.01742001180491703</v>
+        <v>0.0001544552824998211</v>
       </c>
       <c r="T4">
-        <v>0.01742001180491703</v>
+        <v>0.0001544552824998211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H5">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J5">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N5">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q5">
-        <v>23.23522068729969</v>
+        <v>0.2349401214466667</v>
       </c>
       <c r="R5">
-        <v>23.23522068729969</v>
+        <v>2.11446109302</v>
       </c>
       <c r="S5">
-        <v>0.01370597675600523</v>
+        <v>0.0001266337095038016</v>
       </c>
       <c r="T5">
-        <v>0.01370597675600523</v>
+        <v>0.0001266337095038017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H6">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J6">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N6">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q6">
-        <v>65.744903394918</v>
+        <v>0.6250758662312222</v>
       </c>
       <c r="R6">
-        <v>65.744903394918</v>
+        <v>5.625682796081</v>
       </c>
       <c r="S6">
-        <v>0.03878156054050707</v>
+        <v>0.000336918510021843</v>
       </c>
       <c r="T6">
-        <v>0.03878156054050707</v>
+        <v>0.0003369185100218431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H7">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N7">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q7">
-        <v>66.66891570572056</v>
+        <v>23.02781898582978</v>
       </c>
       <c r="R7">
-        <v>66.66891570572056</v>
+        <v>207.250370872468</v>
       </c>
       <c r="S7">
-        <v>0.03932661631701816</v>
+        <v>0.0124120908851223</v>
       </c>
       <c r="T7">
-        <v>0.03932661631701816</v>
+        <v>0.0124120908851223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H8">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J8">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N8">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q8">
-        <v>358.7615962540403</v>
+        <v>121.6992101010725</v>
       </c>
       <c r="R8">
-        <v>358.7615962540403</v>
+        <v>1095.292890909652</v>
       </c>
       <c r="S8">
-        <v>0.2116260553485048</v>
+        <v>0.06559638398024667</v>
       </c>
       <c r="T8">
-        <v>0.2116260553485048</v>
+        <v>0.0655963839802467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H9">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J9">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N9">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q9">
-        <v>87.34243573618626</v>
+        <v>31.41841675915378</v>
       </c>
       <c r="R9">
-        <v>87.34243573618626</v>
+        <v>282.765750832384</v>
       </c>
       <c r="S9">
-        <v>0.05152149876791952</v>
+        <v>0.01693465822886805</v>
       </c>
       <c r="T9">
-        <v>0.05152149876791952</v>
+        <v>0.01693465822886806</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H10">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J10">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N10">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q10">
-        <v>68.72058454490531</v>
+        <v>25.75911031694667</v>
       </c>
       <c r="R10">
-        <v>68.72058454490531</v>
+        <v>231.83199285252</v>
       </c>
       <c r="S10">
-        <v>0.04053685338768461</v>
+        <v>0.01388426835257723</v>
       </c>
       <c r="T10">
-        <v>0.04053685338768461</v>
+        <v>0.01388426835257723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H11">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J11">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N11">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q11">
-        <v>194.4473974639989</v>
+        <v>68.53405070008955</v>
       </c>
       <c r="R11">
-        <v>194.4473974639989</v>
+        <v>616.806456300806</v>
       </c>
       <c r="S11">
-        <v>0.1147005034199658</v>
+        <v>0.03694014038144649</v>
       </c>
       <c r="T11">
-        <v>0.1147005034199658</v>
+        <v>0.0369401403814465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H12">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I12">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J12">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N12">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q12">
-        <v>55.87954458058853</v>
+        <v>68.20268139883488</v>
       </c>
       <c r="R12">
-        <v>55.87954458058853</v>
+        <v>613.824132589514</v>
       </c>
       <c r="S12">
-        <v>0.03296218914659736</v>
+        <v>0.03676153094013365</v>
       </c>
       <c r="T12">
-        <v>0.03296218914659736</v>
+        <v>0.03676153094013366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H13">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I13">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J13">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N13">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q13">
-        <v>300.7013748381776</v>
+        <v>360.4428390774162</v>
       </c>
       <c r="R13">
-        <v>300.7013748381776</v>
+        <v>3243.985551696746</v>
       </c>
       <c r="S13">
-        <v>0.1773775299790299</v>
+        <v>0.1942801999734927</v>
       </c>
       <c r="T13">
-        <v>0.1773775299790299</v>
+        <v>0.1942801999734927</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H14">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I14">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J14">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N14">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q14">
-        <v>73.20736327917541</v>
+        <v>93.0535483885369</v>
       </c>
       <c r="R14">
-        <v>73.20736327917541</v>
+        <v>837.4819354968321</v>
       </c>
       <c r="S14">
-        <v>0.04318351148785312</v>
+        <v>0.05015625233515907</v>
       </c>
       <c r="T14">
-        <v>0.04318351148785312</v>
+        <v>0.05015625233515909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H15">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I15">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J15">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N15">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q15">
-        <v>57.59918137309137</v>
+        <v>76.29208806727333</v>
       </c>
       <c r="R15">
-        <v>57.59918137309137</v>
+        <v>686.62879260546</v>
       </c>
       <c r="S15">
-        <v>0.03397656737110452</v>
+        <v>0.04112175501681054</v>
       </c>
       <c r="T15">
-        <v>0.03397656737110452</v>
+        <v>0.04112175501681056</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H16">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I16">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J16">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N16">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O16">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P16">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q16">
-        <v>162.9789820361007</v>
+        <v>202.9808392946848</v>
       </c>
       <c r="R16">
-        <v>162.9789820361007</v>
+        <v>1826.827553652163</v>
       </c>
       <c r="S16">
-        <v>0.09613793514451838</v>
+        <v>0.1094075225627906</v>
       </c>
       <c r="T16">
-        <v>0.09613793514451838</v>
+        <v>0.1094075225627907</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H17">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I17">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J17">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N17">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O17">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P17">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q17">
-        <v>0.5670725763946836</v>
+        <v>65.87755010126889</v>
       </c>
       <c r="R17">
-        <v>0.5670725763946836</v>
+        <v>592.8979509114199</v>
       </c>
       <c r="S17">
-        <v>0.0003345043998347664</v>
+        <v>0.03550827543195936</v>
       </c>
       <c r="T17">
-        <v>0.0003345043998347664</v>
+        <v>0.03550827543195938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H18">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I18">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J18">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N18">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P18">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q18">
-        <v>3.051554994493352</v>
+        <v>348.1548042240423</v>
       </c>
       <c r="R18">
-        <v>3.051554994493352</v>
+        <v>3133.39323801638</v>
       </c>
       <c r="S18">
-        <v>0.001800049260864508</v>
+        <v>0.1876568977192287</v>
       </c>
       <c r="T18">
-        <v>0.001800049260864508</v>
+        <v>0.1876568977192288</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H19">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I19">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J19">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N19">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O19">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P19">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q19">
-        <v>0.7429174381676094</v>
+        <v>89.8812139103289</v>
       </c>
       <c r="R19">
-        <v>0.7429174381676094</v>
+        <v>808.93092519296</v>
       </c>
       <c r="S19">
-        <v>0.0004382316516891049</v>
+        <v>0.04844635076411779</v>
       </c>
       <c r="T19">
-        <v>0.0004382316516891049</v>
+        <v>0.0484463507641178</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H20">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I20">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J20">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N20">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O20">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P20">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q20">
-        <v>0.5845236646901745</v>
+        <v>73.69117681153334</v>
       </c>
       <c r="R20">
-        <v>0.5845236646901745</v>
+        <v>663.2205913038</v>
       </c>
       <c r="S20">
-        <v>0.0003447984363650814</v>
+        <v>0.03971985295607923</v>
       </c>
       <c r="T20">
-        <v>0.0003447984363650814</v>
+        <v>0.03971985295607924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29.37284333333333</v>
+      </c>
+      <c r="H21">
+        <v>88.11852999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.417009033544999</v>
+      </c>
+      <c r="J21">
+        <v>0.4170090335449991</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.674904333333333</v>
+      </c>
+      <c r="N21">
+        <v>20.024713</v>
+      </c>
+      <c r="O21">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="P21">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="Q21">
+        <v>196.0609192479878</v>
+      </c>
+      <c r="R21">
+        <v>1764.54827323189</v>
+      </c>
+      <c r="S21">
+        <v>0.1056776566736139</v>
+      </c>
+      <c r="T21">
+        <v>0.1056776566736139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J22">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.242804666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.728414</v>
+      </c>
+      <c r="O22">
+        <v>0.08514989502770016</v>
+      </c>
+      <c r="P22">
+        <v>0.08514989502770018</v>
+      </c>
+      <c r="Q22">
+        <v>0.6582347608075557</v>
+      </c>
+      <c r="R22">
+        <v>5.924112847268001</v>
+      </c>
+      <c r="S22">
+        <v>0.0003547912930841426</v>
+      </c>
+      <c r="T22">
+        <v>0.0003547912930841427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J23">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.85294866666667</v>
+      </c>
+      <c r="N23">
+        <v>35.558846</v>
+      </c>
+      <c r="O23">
+        <v>0.4500067927161076</v>
+      </c>
+      <c r="P23">
+        <v>0.4500067927161077</v>
+      </c>
+      <c r="Q23">
+        <v>3.47869029631689</v>
+      </c>
+      <c r="R23">
+        <v>31.308212666852</v>
+      </c>
+      <c r="S23">
+        <v>0.001875028640169866</v>
+      </c>
+      <c r="T23">
+        <v>0.001875028640169867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J24">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.060010666666667</v>
+      </c>
+      <c r="N24">
+        <v>9.180032000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.1161757824579356</v>
+      </c>
+      <c r="P24">
+        <v>0.1161757824579356</v>
+      </c>
+      <c r="Q24">
+        <v>0.8980743705315557</v>
+      </c>
+      <c r="R24">
+        <v>8.082669334784001</v>
+      </c>
+      <c r="S24">
+        <v>0.0004840658472908783</v>
+      </c>
+      <c r="T24">
+        <v>0.0004840658472908785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="H21">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="I21">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="J21">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.41694582444921</v>
-      </c>
-      <c r="N21">
-        <v>6.41694582444921</v>
-      </c>
-      <c r="O21">
-        <v>0.2505956188417098</v>
-      </c>
-      <c r="P21">
-        <v>0.2505956188417098</v>
-      </c>
-      <c r="Q21">
-        <v>1.653931003465975</v>
-      </c>
-      <c r="R21">
-        <v>1.653931003465975</v>
-      </c>
-      <c r="S21">
-        <v>0.0009756197367185638</v>
-      </c>
-      <c r="T21">
-        <v>0.0009756197367185638</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J25">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.50882</v>
+      </c>
+      <c r="N25">
+        <v>7.52646</v>
+      </c>
+      <c r="O25">
+        <v>0.09524938253356351</v>
+      </c>
+      <c r="P25">
+        <v>0.09524938253356353</v>
+      </c>
+      <c r="Q25">
+        <v>0.7363068916133335</v>
+      </c>
+      <c r="R25">
+        <v>6.626762024520001</v>
+      </c>
+      <c r="S25">
+        <v>0.0003968724985926959</v>
+      </c>
+      <c r="T25">
+        <v>0.0003968724985926961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J26">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.674904333333333</v>
+      </c>
+      <c r="N26">
+        <v>20.024713</v>
+      </c>
+      <c r="O26">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="P26">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="Q26">
+        <v>1.958999873045111</v>
+      </c>
+      <c r="R26">
+        <v>17.630998857406</v>
+      </c>
+      <c r="S26">
+        <v>0.001055909136820184</v>
+      </c>
+      <c r="T26">
+        <v>0.001055909136820184</v>
       </c>
     </row>
   </sheetData>
